--- a/dtpu_configurations/only_integer8/50mhz/mxu_24x24/utilization.xlsx
+++ b/dtpu_configurations/only_integer8/50mhz/mxu_24x24/utilization.xlsx
@@ -154,16 +154,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>71.54698944091797</v>
+        <v>89.09586334228516</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>7.189655303955078</v>
+        <v>7.183907985687256</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>36.70206832885742</v>
+        <v>47.98871994018555</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>35.0</v>
+        <v>57.85714340209961</v>
       </c>
       <c r="F2" t="n" s="4">
         <v>100.0</v>
